--- a/output/instance_SMALL_scenario_2/master_variables_site2.xlsx
+++ b/output/instance_SMALL_scenario_2/master_variables_site2.xlsx
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="R2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -904,12 +904,12 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1014,7 +1014,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
